--- a/テストデータ/テストデータ.xlsx
+++ b/テストデータ/テストデータ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomoy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomoy\Desktop\ex2021\テストデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A50B5730-E99F-4E19-9E7A-5EFD6207BE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E336F33D-5D9F-4F80-9C1B-88AC3CF82A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11810" yWindow="4480" windowWidth="14400" windowHeight="7450" xr2:uid="{6867C4D8-40C9-4C7D-97FA-11533F667BCF}"/>
+    <workbookView xWindow="3270" yWindow="1620" windowWidth="14400" windowHeight="7450" xr2:uid="{6867C4D8-40C9-4C7D-97FA-11533F667BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>論文名</t>
     <rPh sb="0" eb="3">
@@ -93,9 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Journal of the Association for Information Science and Technology</t>
-  </si>
-  <si>
     <t>2137-2155</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -126,9 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>瞬時有効・無効電力の非線形制御を適用したCVCFインバータと運転特性</t>
-  </si>
-  <si>
     <t>佐藤明, 野口季彦</t>
     <rPh sb="0" eb="3">
       <t>サトウアキラ</t>
@@ -199,9 +193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヤブツルアズキ(Vigna angularis var. nipponensis)の成育に及ぼす栽培環境の影響</t>
-  </si>
-  <si>
     <t>鯨幸夫, 前野寿有, 山口順司, 寺沢なお子, 木下栄一郎</t>
     <rPh sb="0" eb="1">
       <t>クジラ</t>
@@ -276,6 +267,178 @@
   <si>
     <t>1202-1208</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Journal of the Association for Information Science and Technology</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瞬時有効・無効電力の非線形制御を適用したCVCFインバータと運転特性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>software reuse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Charles W. Krueger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0360-0300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Association for Computing Machinery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボットの身体動作表現と生成される印象とのラバン特徴量を介した定量的相関分析</t>
+    <rPh sb="5" eb="11">
+      <t>シンタイドウサヒョウゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>インショウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>トクチョウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>テイリョウテキ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>ソウカンブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中田亨,森武俊,佐藤知正</t>
+    <rPh sb="0" eb="2">
+      <t>ナカタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タケル</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本ロボット学会誌</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガッカイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>252-259</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Representation Learning: A Review and New Perspectives</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yoshua Bengio,Aaron Courville,Pascal Vincent</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Pattern Analysis and Machine Intelligence</t>
+  </si>
+  <si>
+    <t>1798-1828</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clean Code: A Handbook of Agile Software Craftsmanship</t>
+  </si>
+  <si>
+    <t>Robert C. Martin</t>
+  </si>
+  <si>
+    <t>Prentice Hall</t>
+  </si>
+  <si>
+    <t>画像特徴に基づくイメージモザイキング</t>
+  </si>
+  <si>
+    <t>千葉直樹，蚊野浩，美濃導彦，安田昌司</t>
+  </si>
+  <si>
+    <t>電子情報通信学会論文誌</t>
+  </si>
+  <si>
+    <t>1581-1589</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Working memory: looking back and looking forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan Baddeley </t>
+  </si>
+  <si>
+    <t>Nature Reviews Neuroscience</t>
+  </si>
+  <si>
+    <t>829-839</t>
+  </si>
+  <si>
+    <t>Implicit memory: Retention without remembering.</t>
+  </si>
+  <si>
+    <t>Roediger, Henry L.</t>
+  </si>
+  <si>
+    <t>American Psychologist</t>
+  </si>
+  <si>
+    <t>1043-1056</t>
+  </si>
+  <si>
+    <t>A Unifying View of Sparse Approximate Gaussian Process Regression</t>
+  </si>
+  <si>
+    <t>Ralf Herbrich</t>
+  </si>
+  <si>
+    <t>Journal of Machine Learning Research</t>
+  </si>
+  <si>
+    <t>1939-1959</t>
+  </si>
+  <si>
+    <t>A Primer on Neural Network Models for Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Yoav Goldberg</t>
+  </si>
+  <si>
+    <t>Journal of Artificial Intelligence Research</t>
   </si>
 </sst>
 </file>
@@ -666,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B5CA35-824C-4F28-B697-8E7620316889}">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -695,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -718,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>2016</v>
@@ -730,7 +893,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -738,13 +901,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>2008</v>
@@ -756,10 +919,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -767,13 +930,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
       <c r="E5">
         <v>2008</v>
@@ -785,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -793,13 +956,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>2010</v>
@@ -811,7 +974,7 @@
         <v>770</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -819,13 +982,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2012</v>
@@ -834,7 +997,7 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -842,13 +1005,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>2015</v>
@@ -860,7 +1023,223 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>1992</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>2001</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>2013</v>
+      </c>
+      <c r="F11">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>2008</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>1999</v>
+      </c>
+      <c r="F13">
+        <v>82</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>2003</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15">
+        <v>1990</v>
+      </c>
+      <c r="F15">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>2005</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>2016</v>
+      </c>
+      <c r="F17">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/テストデータ/テストデータ.xlsx
+++ b/テストデータ/テストデータ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomoy\Desktop\ex2021\テストデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E336F33D-5D9F-4F80-9C1B-88AC3CF82A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09608E22-9A97-4ED1-AF12-F961B993E1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1620" windowWidth="14400" windowHeight="7450" xr2:uid="{6867C4D8-40C9-4C7D-97FA-11533F667BCF}"/>
+    <workbookView xWindow="-8390" yWindow="2250" windowWidth="14400" windowHeight="7450" xr2:uid="{6867C4D8-40C9-4C7D-97FA-11533F667BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>論文名</t>
     <rPh sb="0" eb="3">
@@ -374,71 +374,97 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Robert C. Martin</t>
+  </si>
+  <si>
+    <t>Prentice Hall</t>
+  </si>
+  <si>
+    <t>千葉直樹，蚊野浩，美濃導彦，安田昌司</t>
+  </si>
+  <si>
+    <t>電子情報通信学会論文誌</t>
+  </si>
+  <si>
+    <t>1581-1589</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan Baddeley </t>
+  </si>
+  <si>
+    <t>Nature Reviews Neuroscience</t>
+  </si>
+  <si>
+    <t>829-839</t>
+  </si>
+  <si>
+    <t>Roediger, Henry L.</t>
+  </si>
+  <si>
+    <t>American Psychologist</t>
+  </si>
+  <si>
+    <t>1043-1056</t>
+  </si>
+  <si>
+    <t>Ralf Herbrich</t>
+  </si>
+  <si>
+    <t>Journal of Machine Learning Research</t>
+  </si>
+  <si>
+    <t>1939-1959</t>
+  </si>
+  <si>
+    <t>Yoav Goldberg</t>
+  </si>
+  <si>
+    <t>Journal of Artificial Intelligence Research</t>
+  </si>
+  <si>
     <t>Clean Code: A Handbook of Agile Software Craftsmanship</t>
-  </si>
-  <si>
-    <t>Robert C. Martin</t>
-  </si>
-  <si>
-    <t>Prentice Hall</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>画像特徴に基づくイメージモザイキング</t>
-  </si>
-  <si>
-    <t>千葉直樹，蚊野浩，美濃導彦，安田昌司</t>
-  </si>
-  <si>
-    <t>電子情報通信学会論文誌</t>
-  </si>
-  <si>
-    <t>1581-1589</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Working memory: looking back and looking forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan Baddeley </t>
-  </si>
-  <si>
-    <t>Nature Reviews Neuroscience</t>
-  </si>
-  <si>
-    <t>829-839</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Implicit memory: Retention without remembering.</t>
-  </si>
-  <si>
-    <t>Roediger, Henry L.</t>
-  </si>
-  <si>
-    <t>American Psychologist</t>
-  </si>
-  <si>
-    <t>1043-1056</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>A Unifying View of Sparse Approximate Gaussian Process Regression</t>
-  </si>
-  <si>
-    <t>Ralf Herbrich</t>
-  </si>
-  <si>
-    <t>Journal of Machine Learning Research</t>
-  </si>
-  <si>
-    <t>1939-1959</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>A Primer on Neural Network Models for Natural Language Processing</t>
-  </si>
-  <si>
-    <t>Yoav Goldberg</t>
-  </si>
-  <si>
-    <t>Journal of Artificial Intelligence Research</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A Frequent Term and Semantic Similarity based Sing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Naresh Kumar Nagwani, Shrish Verma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>International Journal of Computer Applications</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>36--40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Citeseer</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -829,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B5CA35-824C-4F28-B697-8E7620316889}">
-  <dimension ref="A2:I17"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1112,16 +1138,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
       </c>
       <c r="E12">
         <v>2008</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1129,13 +1155,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
       </c>
       <c r="E13">
         <v>1999</v>
@@ -1147,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1155,13 +1181,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>2003</v>
@@ -1170,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1178,13 +1204,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>1990</v>
@@ -1196,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1204,13 +1230,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>2005</v>
@@ -1219,27 +1245,56 @@
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>2016</v>
       </c>
       <c r="F17">
         <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18">
+        <v>2020</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
